--- a/8node_spain/output_s.xlsx
+++ b/8node_spain/output_s.xlsx
@@ -465,28 +465,28 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>100.2709882873295</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>100.264810744268</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100.2541559497565</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>100.2713649047822</v>
+        <v>5.541579022186909</v>
       </c>
       <c r="E2" t="n">
-        <v>100.2606351108589</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>100.2733030017892</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>100.2800909183208</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>103.8579951594437</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/8node_spain/output_s.xlsx
+++ b/8node_spain/output_s.xlsx
@@ -474,7 +474,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>5.541579022186909</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -483,7 +483,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>49.99093652431063</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>

--- a/8node_spain/output_s.xlsx
+++ b/8node_spain/output_s.xlsx
@@ -480,10 +480,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>29.78248449941933</v>
       </c>
       <c r="G2" t="n">
-        <v>49.99093652431063</v>
+        <v>37.21010924761747</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>

--- a/8node_spain/output_s.xlsx
+++ b/8node_spain/output_s.xlsx
@@ -480,10 +480,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>29.78248449941933</v>
+        <v>52.73650668222792</v>
       </c>
       <c r="G2" t="n">
-        <v>37.21010924761747</v>
+        <v>57.29307042681263</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>

--- a/8node_spain/output_s.xlsx
+++ b/8node_spain/output_s.xlsx
@@ -471,7 +471,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>0.0002387032028114377</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -480,10 +480,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>52.73650668222792</v>
+        <v>1.210170751534994</v>
       </c>
       <c r="G2" t="n">
-        <v>57.29307042681263</v>
+        <v>0.1218732777533483</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
